--- a/src/newfilesXLX/TG_ODDS_DETAL.xlsx
+++ b/src/newfilesXLX/TG_ODDS_DETAL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>Разница по ТГ</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>ИТОГО (руб)</t>
-  </si>
-  <si>
-    <t>--NON FOOD--</t>
   </si>
   <si>
     <t>Шампуни, крема (УИ3)</t>
@@ -76,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,28 +99,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -162,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -175,9 +157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1330,7 +1309,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>247649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1616,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I25"/>
+  <dimension ref="C1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,13 +1614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="3:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
@@ -1658,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -1668,8 +1647,8 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1678,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -1701,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1724,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1747,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1770,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1793,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1816,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1839,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -1862,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1885,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1908,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1931,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1954,41 +1933,31 @@
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -2001,10 +1970,10 @@
     </row>
     <row r="18" spans="3:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2012,81 +1981,77 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="3:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+    <row r="19" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="7">
-        <v>18</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2102,19 +2067,10 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D19:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
